--- a/uploads/.xlsx
+++ b/uploads/.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>270</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>409</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>312</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>360</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>529</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>172</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>296</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
